--- a/data/trans_orig/IP2004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D10BECA-AB3E-46DD-96B3-38375E57F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD4DEFF-57F1-42F0-A3B5-40ED06DAC7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2180C0CC-2D68-4BDD-B053-662428A5A6F1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{13824046-DA39-4590-95B9-4B1D024F0B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -128,6 +128,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -185,63 +242,6 @@
     <t>7,39%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
     <t>96,83%</t>
   </si>
   <si>
@@ -326,6 +326,60 @@
     <t>1,46%</t>
   </si>
   <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
     <t>95,21%</t>
   </si>
   <si>
@@ -374,60 +428,6 @@
     <t>7,0%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
     <t>97,56%</t>
   </si>
   <si>
@@ -491,6 +491,60 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
     <t>96,89%</t>
   </si>
   <si>
@@ -539,60 +593,6 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
     <t>98,37%</t>
   </si>
   <si>
@@ -668,6 +668,48 @@
     <t>0,95%</t>
   </si>
   <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
     <t>97,54%</t>
   </si>
   <si>
@@ -714,48 +756,6 @@
   </si>
   <si>
     <t>3,3%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
   </si>
   <si>
     <t>97,71%</t>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AF193-62A3-4291-B7F5-47AAAD6A86C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A4427A-2A07-4CF4-B52D-2E7B8675DA33}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1474,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="D7" s="7">
-        <v>263991</v>
+        <v>209412</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1489,10 +1489,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="I7" s="7">
-        <v>248349</v>
+        <v>199138</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1504,10 +1504,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>764</v>
+        <v>611</v>
       </c>
       <c r="N7" s="7">
-        <v>512339</v>
+        <v>408550</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1525,10 +1525,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>13669</v>
+        <v>7231</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1540,10 +1540,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>16571</v>
+        <v>4313</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1555,10 +1555,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>30240</v>
+        <v>11544</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1576,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>277660</v>
+        <v>216643</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1591,10 +1591,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="I9" s="7">
-        <v>264920</v>
+        <v>203451</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1606,10 +1606,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>809</v>
+        <v>629</v>
       </c>
       <c r="N9" s="7">
-        <v>542579</v>
+        <v>420094</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1629,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="D10" s="7">
-        <v>209412</v>
+        <v>263991</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1644,10 +1644,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="I10" s="7">
-        <v>199138</v>
+        <v>248349</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1659,10 +1659,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>611</v>
+        <v>764</v>
       </c>
       <c r="N10" s="7">
-        <v>408550</v>
+        <v>512339</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1680,10 +1680,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>7231</v>
+        <v>13669</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1695,10 +1695,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>4313</v>
+        <v>16571</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1710,10 +1710,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>11544</v>
+        <v>30240</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1731,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="D12" s="7">
-        <v>216643</v>
+        <v>277660</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -1746,10 +1746,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="I12" s="7">
-        <v>203451</v>
+        <v>264920</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1761,10 +1761,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>809</v>
       </c>
       <c r="N12" s="7">
-        <v>420094</v>
+        <v>542579</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1947,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A752EB8-A657-4360-8A7C-2A8D9DEC8DCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AB4717-D4A2-4062-BAB7-EBE7D36B26F2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2220,49 +2220,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="D7" s="7">
-        <v>258678</v>
+        <v>237262</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="I7" s="7">
-        <v>241391</v>
+        <v>223847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>726</v>
+        <v>642</v>
       </c>
       <c r="N7" s="7">
-        <v>500069</v>
+        <v>461108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,49 +2271,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>13006</v>
+        <v>4113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>14411</v>
+        <v>4950</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>27417</v>
+        <v>9064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>271684</v>
+        <v>241375</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -2337,10 +2337,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>255802</v>
+        <v>228797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -2352,10 +2352,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>764</v>
+        <v>654</v>
       </c>
       <c r="N9" s="7">
-        <v>527486</v>
+        <v>470172</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -2375,49 +2375,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="D10" s="7">
-        <v>237262</v>
+        <v>258678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="I10" s="7">
-        <v>223847</v>
+        <v>241391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="N10" s="7">
-        <v>461108</v>
+        <v>500069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,25 +2426,25 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>4113</v>
+        <v>13006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>4950</v>
+        <v>14411</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>123</v>
@@ -2456,10 +2456,10 @@
         <v>125</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>9064</v>
+        <v>27417</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>126</v>
@@ -2477,10 +2477,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D12" s="7">
-        <v>241375</v>
+        <v>271684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -2492,10 +2492,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>228797</v>
+        <v>255802</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -2507,10 +2507,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>654</v>
+        <v>764</v>
       </c>
       <c r="N12" s="7">
-        <v>470172</v>
+        <v>527486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -2539,7 +2539,7 @@
         <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>130</v>
@@ -2593,7 +2593,7 @@
         <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2693,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A77EC3-FC3C-4EC3-9D0D-14B3CAC221BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57AB04D-CB14-4C8A-B8C5-E1A07E963C94}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2966,10 +2966,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D7" s="7">
-        <v>272884</v>
+        <v>247349</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>150</v>
@@ -2981,10 +2981,10 @@
         <v>152</v>
       </c>
       <c r="H7" s="7">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I7" s="7">
-        <v>255097</v>
+        <v>227475</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>153</v>
@@ -2996,10 +2996,10 @@
         <v>155</v>
       </c>
       <c r="M7" s="7">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="N7" s="7">
-        <v>527981</v>
+        <v>474824</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>156</v>
@@ -3008,7 +3008,7 @@
         <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,49 +3017,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>8745</v>
+        <v>2703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>11428</v>
+        <v>7164</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>20173</v>
+        <v>9867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3083,10 +3083,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I9" s="7">
-        <v>266525</v>
+        <v>234639</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3098,10 +3098,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="N9" s="7">
-        <v>548154</v>
+        <v>484691</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3121,49 +3121,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D10" s="7">
-        <v>247349</v>
+        <v>272884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I10" s="7">
-        <v>227475</v>
+        <v>255097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="N10" s="7">
-        <v>474824</v>
+        <v>527981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,46 +3172,46 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>2703</v>
+        <v>8745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>7164</v>
+        <v>11428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>9867</v>
+        <v>20173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>183</v>
@@ -3223,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -3238,10 +3238,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="I12" s="7">
-        <v>234639</v>
+        <v>266525</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3253,10 +3253,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="N12" s="7">
-        <v>484691</v>
+        <v>548154</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -3439,7 +3439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577636AC-2A50-42E0-BEE8-16A3554FB19D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB690DA3-1662-4326-B105-5B8B9BF12B99}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3712,49 +3712,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>466</v>
+        <v>261</v>
       </c>
       <c r="D7" s="7">
-        <v>392795</v>
+        <v>198094</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7">
+        <v>278</v>
+      </c>
+      <c r="I7" s="7">
+        <v>196319</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="7">
-        <v>454</v>
-      </c>
-      <c r="I7" s="7">
-        <v>344880</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>539</v>
+      </c>
+      <c r="N7" s="7">
+        <v>394413</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="7">
-        <v>920</v>
-      </c>
-      <c r="N7" s="7">
-        <v>737675</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,49 +3763,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>9915</v>
+        <v>5992</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1948</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5928</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>11</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7940</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>15844</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204086</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3829,10 +3829,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3844,10 +3844,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>550</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>402353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3867,49 +3867,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>261</v>
+        <v>466</v>
       </c>
       <c r="D10" s="7">
-        <v>198094</v>
+        <v>392795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="7">
+        <v>454</v>
+      </c>
+      <c r="I10" s="7">
+        <v>344880</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7">
-        <v>278</v>
-      </c>
-      <c r="I10" s="7">
-        <v>196319</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>920</v>
+      </c>
+      <c r="N10" s="7">
+        <v>737675</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M10" s="7">
-        <v>539</v>
-      </c>
-      <c r="N10" s="7">
-        <v>394413</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,25 +3918,25 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9915</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
-        <v>5992</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
       <c r="I11" s="7">
-        <v>1948</v>
+        <v>5928</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>233</v>
@@ -3948,10 +3948,10 @@
         <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>7940</v>
+        <v>15844</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>236</v>
@@ -3969,10 +3969,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204086</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -3984,10 +3984,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3999,10 +3999,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>550</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>402353</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>

--- a/data/trans_orig/IP2004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD4DEFF-57F1-42F0-A3B5-40ED06DAC7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4E7560-01AA-4480-A32A-DC90379861C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{13824046-DA39-4590-95B9-4B1D024F0B6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF56DDB1-682D-49C2-8FAD-FE12469DEBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
   <si>
     <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
   </si>
@@ -68,748 +68,868 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
 </sst>
 </file>
@@ -820,7 +940,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -916,39 +1036,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1000,7 +1120,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1111,13 +1231,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1126,6 +1239,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1190,19 +1310,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A4427A-2A07-4CF4-B52D-2E7B8675DA33}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D086E24-F027-4B5F-AAFD-6BD5DCD8DD7A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1319,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>185753</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1334,85 +1474,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>173625</v>
+        <v>598</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>542</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>359377</v>
+        <v>598</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7">
+        <v>84620</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>648</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>107</v>
+      </c>
+      <c r="I5" s="7">
+        <v>70169</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1167</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>234</v>
+      </c>
+      <c r="N5" s="7">
+        <v>154789</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1815</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,153 +1561,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7">
-        <v>186401</v>
+        <v>84620</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>174792</v>
+        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>545</v>
+        <v>235</v>
       </c>
       <c r="N6" s="7">
-        <v>361192</v>
+        <v>155387</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>209412</v>
+        <v>2643</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2416</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7">
-        <v>294</v>
-      </c>
-      <c r="I7" s="7">
-        <v>199138</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5059</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M7" s="7">
-        <v>611</v>
-      </c>
-      <c r="N7" s="7">
-        <v>408550</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>7231</v>
+        <v>250388</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
+        <v>372</v>
+      </c>
+      <c r="I8" s="7">
+        <v>249018</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4313</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>749</v>
+      </c>
+      <c r="N8" s="7">
+        <v>499406</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="M8" s="7">
-        <v>18</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11544</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,153 +1716,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>216643</v>
+        <v>253031</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I9" s="7">
-        <v>203451</v>
+        <v>251434</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>757</v>
       </c>
       <c r="N9" s="7">
-        <v>420094</v>
+        <v>504465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>395</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>263991</v>
+        <v>7626</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6017</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>369</v>
-      </c>
-      <c r="I10" s="7">
-        <v>248349</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>13643</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>764</v>
-      </c>
-      <c r="N10" s="7">
-        <v>512339</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>13669</v>
+        <v>131173</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>182</v>
+      </c>
+      <c r="I11" s="7">
+        <v>121531</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16571</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>378</v>
+      </c>
+      <c r="N11" s="7">
+        <v>252704</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>45</v>
-      </c>
-      <c r="N11" s="7">
-        <v>30240</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,144 +1871,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="D12" s="7">
-        <v>277660</v>
+        <v>138799</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>264920</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>809</v>
+        <v>399</v>
       </c>
       <c r="N12" s="7">
-        <v>542579</v>
+        <v>266347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>659156</v>
+        <v>11279</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13021</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="7">
-        <v>927</v>
-      </c>
-      <c r="I13" s="7">
-        <v>621111</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24300</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1280267</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="D14" s="7">
-        <v>21548</v>
+        <v>192975</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>266</v>
+      </c>
+      <c r="I14" s="7">
+        <v>180393</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7">
-        <v>33</v>
-      </c>
-      <c r="I14" s="7">
-        <v>22051</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>66</v>
+        <v>556</v>
       </c>
       <c r="N14" s="7">
-        <v>43599</v>
+        <v>373367</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1886,55 +2026,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>307</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204254</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>285</v>
+      </c>
+      <c r="I15" s="7">
+        <v>193414</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>592</v>
+      </c>
+      <c r="N15" s="7">
+        <v>397667</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21548</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7">
+        <v>33</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22051</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="7">
+        <v>66</v>
+      </c>
+      <c r="N16" s="7">
+        <v>43599</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>990</v>
+      </c>
+      <c r="D17" s="7">
+        <v>659156</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="7">
+        <v>927</v>
+      </c>
+      <c r="I17" s="7">
+        <v>621111</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1917</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1280267</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1023</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>680704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>960</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>643162</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1983</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1323866</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1947,8 +2248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AB4717-D4A2-4062-BAB7-EBE7D36B26F2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDB9DC-C9B9-40F3-BDC8-D6CB6B3DBB06}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1964,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2065,100 +2366,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>189097</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>176024</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>365121</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>137</v>
+      </c>
+      <c r="D5" s="7">
+        <v>95923</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>1593</v>
+        <v>98870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>1593</v>
+        <v>194793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,153 +2468,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>189097</v>
+        <v>95923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="I6" s="7">
-        <v>177617</v>
+        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>366714</v>
+        <v>194793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>237262</v>
+        <v>2595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>313</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>223847</v>
+        <v>5208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>642</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>461108</v>
+        <v>7803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>4113</v>
+        <v>265780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="I8" s="7">
-        <v>4950</v>
+        <v>231042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>703</v>
       </c>
       <c r="N8" s="7">
-        <v>9064</v>
+        <v>496822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,153 +2623,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7">
-        <v>241375</v>
+        <v>268375</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>228797</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>654</v>
+        <v>713</v>
       </c>
       <c r="N9" s="7">
-        <v>470172</v>
+        <v>504625</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>258678</v>
+        <v>6047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>344</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>241391</v>
+        <v>3984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>726</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>500069</v>
+        <v>10031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>13006</v>
+        <v>152524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>14411</v>
+        <v>152384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="N11" s="7">
-        <v>27417</v>
+        <v>304908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,153 +2778,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>271684</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>364</v>
+        <v>222</v>
       </c>
       <c r="I12" s="7">
-        <v>255802</v>
+        <v>156368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>764</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>527486</v>
+        <v>314939</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>979</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>685036</v>
+        <v>8477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>924</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>641261</v>
+        <v>11763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>1903</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>1326297</v>
+        <v>20241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="D14" s="7">
-        <v>17120</v>
+        <v>170810</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>20955</v>
+        <v>158965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>478</v>
       </c>
       <c r="N14" s="7">
-        <v>38075</v>
+        <v>329774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,55 +2933,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>264</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179287</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>242</v>
+      </c>
+      <c r="I15" s="7">
+        <v>170728</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>506</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350015</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17120</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20955</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="7">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38075</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>979</v>
+      </c>
+      <c r="D17" s="7">
+        <v>685036</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7">
+        <v>924</v>
+      </c>
+      <c r="I17" s="7">
+        <v>641261</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1903</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1326297</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1002</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>702156</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>953</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>662216</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1955</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1364372</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2693,8 +3155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57AB04D-CB14-4C8A-B8C5-E1A07E963C94}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD705F-FF59-4C2B-A23A-E0D727BDB6FE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2710,7 +3172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2811,100 +3273,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>169214</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>157473</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>326687</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>80214</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>87859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>168074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,153 +3375,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>169214</v>
+        <v>80214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>157473</v>
+        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>512</v>
+        <v>263</v>
       </c>
       <c r="N6" s="7">
-        <v>326687</v>
+        <v>168074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>247349</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>227475</v>
+        <v>1934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>708</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>474824</v>
+        <v>1934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>380</v>
+      </c>
+      <c r="D8" s="7">
+        <v>258061</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2703</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="I8" s="7">
-        <v>7164</v>
+        <v>207889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>709</v>
       </c>
       <c r="N8" s="7">
-        <v>9867</v>
+        <v>465950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,153 +3530,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>234639</v>
+        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="N9" s="7">
-        <v>484691</v>
+        <v>467884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>272884</v>
+        <v>4147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>255097</v>
+        <v>8893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
-        <v>725</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>527981</v>
+        <v>13040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>8745</v>
+        <v>184425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>11428</v>
+        <v>180006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="N11" s="7">
-        <v>20173</v>
+        <v>364431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,153 +3685,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>266525</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>754</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>548154</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>984</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>689446</v>
+        <v>7301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>961</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>640045</v>
+        <v>7765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
-        <v>1945</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>1329492</v>
+        <v>15066</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>11449</v>
+        <v>166747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="I14" s="7">
-        <v>18592</v>
+        <v>164291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>30040</v>
+        <v>331037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,55 +3840,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>244</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172056</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>479</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11449</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7">
+        <v>18592</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="7">
+        <v>43</v>
+      </c>
+      <c r="N16" s="7">
+        <v>30040</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>984</v>
+      </c>
+      <c r="D17" s="7">
+        <v>689446</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="7">
+        <v>961</v>
+      </c>
+      <c r="I17" s="7">
+        <v>640045</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1945</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1329492</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>700895</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>988</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>658637</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1988</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1359532</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3439,8 +4062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB690DA3-1662-4326-B105-5B8B9BF12B99}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB05A35F-3BCA-45B0-B584-0BCFD59A60F2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3456,7 +4079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3557,100 +4180,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>104697</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>94504</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>199202</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>87</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45631</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>369</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>48229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="N5" s="7">
-        <v>369</v>
+        <v>93860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,153 +4282,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>105066</v>
+        <v>45631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>94504</v>
+        <v>48229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>199571</v>
+        <v>93860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>198094</v>
+        <v>4515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>196319</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>539</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>394413</v>
+        <v>4515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>268</v>
+      </c>
+      <c r="D8" s="7">
+        <v>169814</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="7">
+        <v>257</v>
+      </c>
+      <c r="I8" s="7">
+        <v>158605</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5992</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1948</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>525</v>
       </c>
       <c r="N8" s="7">
-        <v>7940</v>
+        <v>328419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,153 +4437,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>204086</v>
+        <v>174329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>402353</v>
+        <v>332934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>392795</v>
+        <v>4749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
-        <v>454</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>344880</v>
+        <v>3374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
-        <v>920</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>737675</v>
+        <v>8123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7">
-        <v>9915</v>
+        <v>197729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>5928</v>
+        <v>172739</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>464</v>
       </c>
       <c r="N11" s="7">
-        <v>15844</v>
+        <v>370468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,153 +4592,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>924</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>695586</v>
+        <v>7013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
-        <v>910</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>635704</v>
+        <v>4502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
-        <v>1834</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>1331289</v>
+        <v>11515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="D14" s="7">
-        <v>16277</v>
+        <v>282411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="I14" s="7">
-        <v>7876</v>
+        <v>256131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>24153</v>
+        <v>538542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,55 +4747,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16277</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7876</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M16" s="7">
+        <v>33</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24153</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>924</v>
+      </c>
+      <c r="D17" s="7">
+        <v>695586</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="7">
+        <v>910</v>
+      </c>
+      <c r="I17" s="7">
+        <v>635704</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1834</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1331289</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>946</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>711863</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>921</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>643580</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1867</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1355442</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP2004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4E7560-01AA-4480-A32A-DC90379861C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1877087F-A9C1-42E4-868D-6A84825D70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF56DDB1-682D-49C2-8FAD-FE12469DEBCA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EB42FAF-76EA-4B9E-B93C-555DAA0F2416}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="289">
   <si>
     <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,13 +110,13 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>97,98%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -128,808 +128,784 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D086E24-F027-4B5F-AAFD-6BD5DCD8DD7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08636D02-1433-4E63-A448-94F9E923FF6B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2091,7 +2067,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -2115,13 +2091,13 @@
         <v>43599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2112,13 @@
         <v>659156</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -2151,13 +2127,13 @@
         <v>621111</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>1917</v>
@@ -2166,13 +2142,13 @@
         <v>1280267</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2204,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2248,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDB9DC-C9B9-40F3-BDC8-D6CB6B3DBB06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB6B54A-7A17-43DB-9AD5-3D1A26BF7BAB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2265,7 +2241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2378,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2393,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2408,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,7 +2402,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2441,7 +2417,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2456,7 +2432,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2527,13 +2503,13 @@
         <v>2595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2542,13 +2518,13 @@
         <v>5208</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2557,13 +2533,13 @@
         <v>7803</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,10 +2554,10 @@
         <v>265780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -2593,13 +2569,13 @@
         <v>231042</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>703</v>
@@ -2608,13 +2584,13 @@
         <v>496822</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2658,13 @@
         <v>6047</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2697,13 +2673,13 @@
         <v>3984</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2712,13 +2688,13 @@
         <v>10031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2709,13 @@
         <v>152524</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>216</v>
@@ -2748,13 +2724,13 @@
         <v>152384</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -2763,7 +2739,7 @@
         <v>304908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>137</v>
@@ -2855,10 +2831,10 @@
         <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2867,13 +2843,13 @@
         <v>20241</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2864,13 @@
         <v>170810</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -2903,13 +2879,13 @@
         <v>158965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>478</v>
@@ -2918,13 +2894,13 @@
         <v>329774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2968,13 @@
         <v>17120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3007,13 +2983,13 @@
         <v>20955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -3022,13 +2998,13 @@
         <v>38075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3019,13 @@
         <v>685036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -3058,13 +3034,13 @@
         <v>641261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>1903</v>
@@ -3073,13 +3049,13 @@
         <v>1326297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3111,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD705F-FF59-4C2B-A23A-E0D727BDB6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AD638A-BE94-49AC-993A-8D6513927D6A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,7 +3148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3285,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3300,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3315,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3309,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3348,7 +3324,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3363,7 +3339,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3440,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3449,13 +3425,13 @@
         <v>1934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3464,13 +3440,13 @@
         <v>1934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3500,10 +3476,10 @@
         <v>207889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3515,10 +3491,10 @@
         <v>465950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3589,13 +3565,13 @@
         <v>4147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3604,13 +3580,13 @@
         <v>8893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3619,13 +3595,13 @@
         <v>13040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3616,13 @@
         <v>184425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3655,13 +3631,13 @@
         <v>180006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>516</v>
@@ -3670,13 +3646,13 @@
         <v>364431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3720,13 @@
         <v>7301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3759,13 +3735,13 @@
         <v>7765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3774,13 +3750,13 @@
         <v>15066</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3771,13 @@
         <v>166747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>232</v>
@@ -3810,13 +3786,13 @@
         <v>164291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -3825,13 +3801,13 @@
         <v>331037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3875,13 @@
         <v>11449</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3914,13 +3890,13 @@
         <v>18592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3929,13 +3905,13 @@
         <v>30040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3926,13 @@
         <v>689446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>961</v>
@@ -3965,13 +3941,13 @@
         <v>640045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>1945</v>
@@ -3980,13 +3956,13 @@
         <v>1329492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4018,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB05A35F-3BCA-45B0-B584-0BCFD59A60F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF8BF2-3609-4CDA-962F-8D4A12AADC62}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4079,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4192,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4207,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4222,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4216,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4255,7 +4231,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4270,7 +4246,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4341,13 +4317,13 @@
         <v>4515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4362,7 +4338,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4371,13 +4347,13 @@
         <v>4515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4368,13 @@
         <v>169814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>257</v>
@@ -4410,7 +4386,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4422,13 +4398,13 @@
         <v>328419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4472,13 @@
         <v>4749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4511,13 +4487,13 @@
         <v>3374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4526,13 +4502,13 @@
         <v>8123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4523,13 @@
         <v>197729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4562,13 +4538,13 @@
         <v>172739</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
@@ -4577,13 +4553,13 @@
         <v>370468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4627,13 @@
         <v>7013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4666,13 +4642,13 @@
         <v>4502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4681,13 +4657,13 @@
         <v>11515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4678,13 @@
         <v>282411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -4717,13 +4693,13 @@
         <v>256131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -4732,13 +4708,13 @@
         <v>538542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4782,13 @@
         <v>16277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4821,13 +4797,13 @@
         <v>7876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4836,13 +4812,13 @@
         <v>24153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4833,13 @@
         <v>695586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>910</v>
@@ -4872,13 +4848,13 @@
         <v>635704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>1834</v>
@@ -4887,13 +4863,13 @@
         <v>1331289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +4925,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1877087F-A9C1-42E4-868D-6A84825D70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9E9F51-C86E-49D5-9E45-E4A7364A7407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EB42FAF-76EA-4B9E-B93C-555DAA0F2416}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{5560B807-B939-4EF2-916D-F694FDF2B6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="289">
-  <si>
-    <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
+  <si>
+    <t>Menores según si le sangran las encías en 2007 (Tasa respuesta: 94,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,838 +74,862 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,04%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08636D02-1433-4E63-A448-94F9E923FF6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBED61B-74DD-4D4D-9545-09F687EF499C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1435,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1450,16 +1474,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1474,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1486,10 +1510,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>84620</v>
+        <v>70169</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1501,19 +1525,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>70169</v>
+        <v>84620</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>234</v>
@@ -1528,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,34 +1561,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70767</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>127</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>84620</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70767</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>235</v>
@@ -1573,13 +1597,13 @@
         <v>155387</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2643</v>
+        <v>2416</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1608,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2416</v>
+        <v>2643</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1641,10 +1665,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D8" s="7">
-        <v>250388</v>
+        <v>249018</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1656,10 +1680,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="I8" s="7">
-        <v>249018</v>
+        <v>250388</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1692,34 +1716,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>376</v>
+      </c>
+      <c r="D9" s="7">
+        <v>251434</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>381</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253031</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>376</v>
-      </c>
-      <c r="I9" s="7">
-        <v>251434</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>757</v>
@@ -1728,13 +1752,13 @@
         <v>504465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>7626</v>
+        <v>6017</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1760,10 +1784,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>6017</v>
+        <v>7626</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1796,10 +1820,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D11" s="7">
-        <v>131173</v>
+        <v>121531</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1811,10 +1835,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="I11" s="7">
-        <v>121531</v>
+        <v>131173</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1847,34 +1871,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>208</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>138799</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>399</v>
@@ -1883,13 +1907,13 @@
         <v>266347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>11279</v>
+        <v>13021</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1915,10 +1939,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>13021</v>
+        <v>11279</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -1951,10 +1975,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D14" s="7">
-        <v>192975</v>
+        <v>180393</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -1966,10 +1990,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>180393</v>
+        <v>192975</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2002,34 +2026,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>193414</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>307</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>204254</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>193414</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>592</v>
@@ -2038,13 +2062,13 @@
         <v>397667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2082,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>21548</v>
+        <v>22051</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -2067,22 +2091,22 @@
         <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>22051</v>
+        <v>21548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2091,13 +2115,13 @@
         <v>43599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,34 +2130,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>927</v>
+      </c>
+      <c r="D17" s="7">
+        <v>621111</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
         <v>990</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>659156</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="7">
-        <v>927</v>
-      </c>
-      <c r="I17" s="7">
-        <v>621111</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1917</v>
@@ -2142,13 +2166,13 @@
         <v>1280267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,34 +2181,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>960</v>
+      </c>
+      <c r="D18" s="7">
+        <v>643162</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1023</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>680704</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>960</v>
-      </c>
-      <c r="I18" s="7">
-        <v>643162</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1983</v>
@@ -2193,18 +2217,18 @@
         <v>1323866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB6B54A-7A17-43DB-9AD5-3D1A26BF7BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9492AE7D-03B5-484E-8EF5-A0F27D970F49}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2241,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2348,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2363,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2378,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,34 +2417,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>149</v>
+      </c>
+      <c r="D5" s="7">
+        <v>98870</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>137</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>95923</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>149</v>
-      </c>
-      <c r="I5" s="7">
-        <v>98870</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -2429,13 +2453,13 @@
         <v>194793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,34 +2468,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7">
+        <v>98870</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>137</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>95923</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>149</v>
-      </c>
-      <c r="I6" s="7">
-        <v>98870</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>286</v>
@@ -2480,13 +2504,13 @@
         <v>194793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,34 +2521,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5208</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2595</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5208</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2533,13 +2557,13 @@
         <v>7803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,34 +2572,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>333</v>
+      </c>
+      <c r="D8" s="7">
+        <v>231042</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="7">
         <v>370</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>265780</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>333</v>
-      </c>
-      <c r="I8" s="7">
-        <v>231042</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>703</v>
@@ -2584,13 +2608,13 @@
         <v>496822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,34 +2623,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>373</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268375</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>713</v>
@@ -2635,13 +2659,13 @@
         <v>504625</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,34 +2676,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3984</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6047</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3984</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2688,13 +2712,13 @@
         <v>10031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,34 +2727,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>216</v>
+      </c>
+      <c r="D11" s="7">
+        <v>152384</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>220</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>152524</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="7">
-        <v>216</v>
-      </c>
-      <c r="I11" s="7">
-        <v>152384</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -2739,13 +2763,13 @@
         <v>304908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,34 +2778,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>222</v>
+      </c>
+      <c r="D12" s="7">
+        <v>156368</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>222</v>
-      </c>
-      <c r="I12" s="7">
-        <v>156368</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>450</v>
@@ -2790,13 +2814,13 @@
         <v>314939</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,34 +2831,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11763</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8477</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11763</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2843,13 +2867,13 @@
         <v>20241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,34 +2882,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>226</v>
+      </c>
+      <c r="D14" s="7">
+        <v>158965</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>252</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>170810</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="7">
-        <v>226</v>
-      </c>
-      <c r="I14" s="7">
-        <v>158965</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>478</v>
@@ -2894,13 +2918,13 @@
         <v>329774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,34 +2933,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>242</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170728</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179287</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>242</v>
-      </c>
-      <c r="I15" s="7">
-        <v>170728</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>506</v>
@@ -2945,13 +2969,13 @@
         <v>350015</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,34 +2986,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
+        <v>20955</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="7">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7">
         <v>17120</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20955</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -2998,13 +3022,13 @@
         <v>38075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,34 +3037,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>924</v>
+      </c>
+      <c r="D17" s="7">
+        <v>641262</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="7">
         <v>979</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>685036</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="7">
-        <v>924</v>
-      </c>
-      <c r="I17" s="7">
-        <v>641261</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>1903</v>
@@ -3049,13 +3073,13 @@
         <v>1326297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,34 +3088,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>953</v>
+      </c>
+      <c r="D18" s="7">
+        <v>662217</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1002</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>702156</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>953</v>
-      </c>
-      <c r="I18" s="7">
-        <v>662216</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1955</v>
@@ -3100,18 +3124,18 @@
         <v>1364372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AD638A-BE94-49AC-993A-8D6513927D6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A60A2E6-8439-44ED-BF6E-EE5C838890CA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3148,7 +3172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3255,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3270,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3285,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,34 +3324,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>141</v>
+      </c>
+      <c r="D5" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>122</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>80214</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>141</v>
-      </c>
-      <c r="I5" s="7">
-        <v>87859</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>263</v>
@@ -3336,13 +3360,13 @@
         <v>168074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,34 +3375,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>122</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>80214</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>141</v>
-      </c>
-      <c r="I6" s="7">
-        <v>87859</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>263</v>
@@ -3387,13 +3411,13 @@
         <v>168074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,34 +3428,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1934</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1934</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3440,13 +3464,13 @@
         <v>1934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,34 +3479,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="D8" s="7">
-        <v>258061</v>
+        <v>207889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="I8" s="7">
-        <v>207889</v>
+        <v>258061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>709</v>
@@ -3491,13 +3515,13 @@
         <v>465950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,34 +3530,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>331</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209823</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>331</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209823</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>711</v>
@@ -3542,13 +3566,13 @@
         <v>467884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,34 +3583,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8893</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4147</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8893</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3595,13 +3619,13 @@
         <v>13040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,34 +3634,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>259</v>
+      </c>
+      <c r="D11" s="7">
+        <v>180006</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="7">
         <v>257</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>184425</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="7">
-        <v>259</v>
-      </c>
-      <c r="I11" s="7">
-        <v>180006</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>516</v>
@@ -3646,13 +3670,13 @@
         <v>364431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,34 +3685,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3697,13 +3721,13 @@
         <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,34 +3738,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7765</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>7301</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7765</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3750,13 +3774,13 @@
         <v>15066</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,34 +3789,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7">
+        <v>164291</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="7">
         <v>225</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>166747</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="7">
-        <v>232</v>
-      </c>
-      <c r="I14" s="7">
-        <v>164291</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -3801,13 +3825,13 @@
         <v>331037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,34 +3840,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>244</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172056</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>244</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172056</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>479</v>
@@ -3852,13 +3876,13 @@
         <v>346103</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,34 +3893,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18592</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>11449</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18592</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3905,13 +3929,13 @@
         <v>30040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,34 +3944,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>961</v>
+      </c>
+      <c r="D17" s="7">
+        <v>640045</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="7">
         <v>984</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>689446</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="7">
-        <v>961</v>
-      </c>
-      <c r="I17" s="7">
-        <v>640045</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>1945</v>
@@ -3956,13 +3980,13 @@
         <v>1329492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,34 +3995,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>988</v>
+      </c>
+      <c r="D18" s="7">
+        <v>658637</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>700895</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>988</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658637</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1988</v>
@@ -4007,18 +4031,18 @@
         <v>1359532</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +4062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF8BF2-3609-4CDA-962F-8D4A12AADC62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929BBB76-E596-491F-AF87-7990C0B215E4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4055,7 +4079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4162,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4177,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4192,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,49 +4231,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>87</v>
       </c>
-      <c r="D5" s="7">
-        <v>45631</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>47929</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>89</v>
-      </c>
-      <c r="I5" s="7">
-        <v>48229</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
       </c>
       <c r="N5" s="7">
-        <v>93860</v>
+        <v>96334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,49 +4282,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>87</v>
       </c>
-      <c r="D6" s="7">
-        <v>45631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>89</v>
-      </c>
       <c r="I6" s="7">
-        <v>48229</v>
+        <v>47929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>93860</v>
+        <v>96334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +4335,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>4515</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>4515</v>
+        <v>4571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,49 +4386,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>257</v>
+      </c>
+      <c r="D8" s="7">
+        <v>159136</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
         <v>268</v>
       </c>
-      <c r="D8" s="7">
-        <v>169814</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="7">
-        <v>257</v>
-      </c>
       <c r="I8" s="7">
-        <v>158605</v>
+        <v>176992</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>525</v>
       </c>
       <c r="N8" s="7">
-        <v>328419</v>
+        <v>336128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,49 +4437,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159136</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174329</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158605</v>
+        <v>181563</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>332934</v>
+        <v>340699</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3242</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>4749</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
       <c r="I10" s="7">
-        <v>3374</v>
+        <v>4885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>8123</v>
+        <v>8127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,49 +4541,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>228</v>
+      </c>
+      <c r="D11" s="7">
+        <v>169830</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="7">
         <v>236</v>
       </c>
-      <c r="D11" s="7">
-        <v>197729</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="7">
-        <v>228</v>
-      </c>
       <c r="I11" s="7">
-        <v>172739</v>
+        <v>207605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
       </c>
       <c r="N11" s="7">
-        <v>370468</v>
+        <v>377436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,49 +4592,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4645,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4408</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
-        <v>7013</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
       <c r="I13" s="7">
-        <v>4502</v>
+        <v>7601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>11515</v>
+        <v>12009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +4696,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>336</v>
+      </c>
+      <c r="D14" s="7">
+        <v>271050</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="7">
         <v>333</v>
       </c>
-      <c r="D14" s="7">
-        <v>282411</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="7">
-        <v>336</v>
-      </c>
       <c r="I14" s="7">
-        <v>256131</v>
+        <v>297882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>538542</v>
+        <v>568931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,46 +4750,46 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,49 +4800,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7651</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="7">
         <v>22</v>
       </c>
-      <c r="D16" s="7">
-        <v>16277</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
       <c r="I16" s="7">
-        <v>7876</v>
+        <v>17057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>24153</v>
+        <v>24707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,49 +4851,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>910</v>
+      </c>
+      <c r="D17" s="7">
+        <v>648420</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="7">
         <v>924</v>
       </c>
-      <c r="D17" s="7">
-        <v>695586</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="7">
-        <v>910</v>
-      </c>
       <c r="I17" s="7">
-        <v>635704</v>
+        <v>730408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>1834</v>
       </c>
       <c r="N17" s="7">
-        <v>1331289</v>
+        <v>1378829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,54 +4902,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>921</v>
+      </c>
+      <c r="D18" s="7">
+        <v>656071</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>946</v>
       </c>
-      <c r="D18" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>921</v>
-      </c>
       <c r="I18" s="7">
-        <v>643580</v>
+        <v>747465</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>1355442</v>
+        <v>1403536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
